--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -376,7 +376,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ewljfgovq</t>
+          <t xml:space="preserve"> ewljfgovq </t>
         </is>
       </c>
       <c r="F1" t="inlineStr">

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,12 +376,44 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ewljfgovq </t>
+          <t xml:space="preserve"> ewljfgovq    </t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
           <t>FEJHWF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>brunodesa288@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4872fc4d46d31c1e78dc1fea5d274cbed1310425e5896fe28a4f076475cdc373</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27618376</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bruno Gallego </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rua Das Portas </t>
         </is>
       </c>
     </row>
